--- a/Documentation/Abgabe Manu/Zeitplan.xlsx
+++ b/Documentation/Abgabe Manu/Zeitplan.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arbeit\semester5\bacherlorVorbereitung\BachelorStudyProject\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoonie\Documents\Github\BachelorStudyProject\Documentation\Abgabe Manu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83042CBE-4306-490C-9B9F-5CF4905872E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8EAA7856-CC44-4D98-ABA5-510F84A7325A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="593" xr2:uid="{6E8C514B-258B-4C42-9507-A0318310B1C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Aufgaben/Zeit</t>
   </si>
@@ -147,13 +141,19 @@
     <t>Konzept Gegner Befehlslisten</t>
   </si>
   <si>
-    <t>Abschluss Core Game</t>
-  </si>
-  <si>
     <t>LevelDesign</t>
   </si>
   <si>
     <t>Zwischen Präsentation</t>
+  </si>
+  <si>
+    <t>KonzeptPhase beenden</t>
+  </si>
+  <si>
+    <t>Abschluss CoreFunktionality</t>
+  </si>
+  <si>
+    <t>LEVELDESIGN</t>
   </si>
 </sst>
 </file>
@@ -559,9 +559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C12F2-6480-4BB7-B246-B8F09C17CDF6}">
   <dimension ref="A1:EX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A29" sqref="A29:A32"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DO3" sqref="DO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,6 +572,7 @@
     <col min="71" max="71" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="20.77734375" style="2" customWidth="1"/>
     <col min="120" max="130" width="11.5546875" style="9"/>
   </cols>
   <sheetData>
@@ -930,7 +931,7 @@
       <c r="DN1" s="4">
         <v>43610</v>
       </c>
-      <c r="DO1" s="4">
+      <c r="DO1" s="7">
         <v>43611</v>
       </c>
       <c r="DP1" s="8">
@@ -1006,10 +1007,13 @@
         <v>16</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="DO2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="DP2" s="9" t="s">
         <v>25</v>
@@ -1039,6 +1043,9 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
+      <c r="AY3" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:154" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1334,7 +1341,7 @@
       <c r="CV32" s="6"/>
       <c r="CW32" s="6"/>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1342,9 +1349,9 @@
       <c r="CY33" s="6"/>
       <c r="CZ33" s="6"/>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="DB34" s="3"/>
       <c r="DC34" s="3"/>
@@ -1359,9 +1366,8 @@
       <c r="DL34" s="3"/>
       <c r="DM34" s="3"/>
       <c r="DN34" s="3"/>
-      <c r="DO34" s="3"/>
-    </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1382,6 @@
       <c r="DL35" s="3"/>
       <c r="DM35" s="3"/>
       <c r="DN35" s="3"/>
-      <c r="DO35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
